--- a/natmiOut/OldD7/LR-pairs_lrc2p/Bmp2-Acvr2a.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Bmp2-Acvr2a.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.78021944531617</v>
+        <v>5.423951666666667</v>
       </c>
       <c r="H2">
-        <v>2.78021944531617</v>
+        <v>16.271855</v>
       </c>
       <c r="I2">
-        <v>0.4265660676469394</v>
+        <v>0.4774188439413272</v>
       </c>
       <c r="J2">
-        <v>0.4265660676469394</v>
+        <v>0.4774188439413271</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>16.5756983954606</v>
+        <v>17.13024733333333</v>
       </c>
       <c r="N2">
-        <v>16.5756983954606</v>
+        <v>51.390742</v>
       </c>
       <c r="O2">
-        <v>0.2935764792412547</v>
+        <v>0.2959211466465044</v>
       </c>
       <c r="P2">
-        <v>0.2935764792412547</v>
+        <v>0.2959211466465043</v>
       </c>
       <c r="Q2">
-        <v>46.08407899875559</v>
+        <v>92.91363357404555</v>
       </c>
       <c r="R2">
-        <v>46.08407899875559</v>
+        <v>836.2227021664098</v>
       </c>
       <c r="S2">
-        <v>0.1252297643035754</v>
+        <v>0.1412783317297661</v>
       </c>
       <c r="T2">
-        <v>0.1252297643035754</v>
+        <v>0.141278331729766</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.78021944531617</v>
+        <v>5.423951666666667</v>
       </c>
       <c r="H3">
-        <v>2.78021944531617</v>
+        <v>16.271855</v>
       </c>
       <c r="I3">
-        <v>0.4265660676469394</v>
+        <v>0.4774188439413272</v>
       </c>
       <c r="J3">
-        <v>0.4265660676469394</v>
+        <v>0.4774188439413271</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>27.4864398479332</v>
+        <v>27.61090666666666</v>
       </c>
       <c r="N3">
-        <v>27.4864398479332</v>
+        <v>82.83271999999999</v>
       </c>
       <c r="O3">
-        <v>0.4868194416256165</v>
+        <v>0.4769721651858779</v>
       </c>
       <c r="P3">
-        <v>0.4868194416256165</v>
+        <v>0.4769721651858778</v>
       </c>
       <c r="Q3">
-        <v>76.41833454773712</v>
+        <v>149.7602232328444</v>
       </c>
       <c r="R3">
-        <v>76.41833454773712</v>
+        <v>1347.8420090956</v>
       </c>
       <c r="S3">
-        <v>0.207660654868318</v>
+        <v>0.2277154996952336</v>
       </c>
       <c r="T3">
-        <v>0.207660654868318</v>
+        <v>0.2277154996952335</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.78021944531617</v>
+        <v>5.423951666666667</v>
       </c>
       <c r="H4">
-        <v>2.78021944531617</v>
+        <v>16.271855</v>
       </c>
       <c r="I4">
-        <v>0.4265660676469394</v>
+        <v>0.4774188439413272</v>
       </c>
       <c r="J4">
-        <v>0.4265660676469394</v>
+        <v>0.4774188439413271</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.15855446623351</v>
+        <v>4.423514</v>
       </c>
       <c r="N4">
-        <v>4.15855446623351</v>
+        <v>13.270542</v>
       </c>
       <c r="O4">
-        <v>0.07365323317322005</v>
+        <v>0.07641520344774541</v>
       </c>
       <c r="P4">
-        <v>0.07365323317322005</v>
+        <v>0.0764152034477454</v>
       </c>
       <c r="Q4">
-        <v>11.56169399142881</v>
+        <v>23.99292613282333</v>
       </c>
       <c r="R4">
-        <v>11.56169399142881</v>
+        <v>215.93633519541</v>
       </c>
       <c r="S4">
-        <v>0.03141797004418358</v>
+        <v>0.03648205808956394</v>
       </c>
       <c r="T4">
-        <v>0.03141797004418358</v>
+        <v>0.03648205808956392</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.78021944531617</v>
+        <v>5.423951666666667</v>
       </c>
       <c r="H5">
-        <v>2.78021944531617</v>
+        <v>16.271855</v>
       </c>
       <c r="I5">
-        <v>0.4265660676469394</v>
+        <v>0.4774188439413272</v>
       </c>
       <c r="J5">
-        <v>0.4265660676469394</v>
+        <v>0.4774188439413271</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.24056889518625</v>
+        <v>8.723210333333332</v>
       </c>
       <c r="N5">
-        <v>8.24056889518625</v>
+        <v>26.169631</v>
       </c>
       <c r="O5">
-        <v>0.1459508459599087</v>
+        <v>0.1506914847198724</v>
       </c>
       <c r="P5">
-        <v>0.1459508459599087</v>
+        <v>0.1506914847198724</v>
       </c>
       <c r="Q5">
-        <v>22.9105898828644</v>
+        <v>47.31427122616721</v>
       </c>
       <c r="R5">
-        <v>22.9105898828644</v>
+        <v>425.828441035505</v>
       </c>
       <c r="S5">
-        <v>0.06225767843086244</v>
+        <v>0.07194295442676367</v>
       </c>
       <c r="T5">
-        <v>0.06225767843086244</v>
+        <v>0.07194295442676364</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.5538614623364</v>
+        <v>1.583504333333333</v>
       </c>
       <c r="H6">
-        <v>1.5538614623364</v>
+        <v>4.750513</v>
       </c>
       <c r="I6">
-        <v>0.2384072864369107</v>
+        <v>0.1393808158066948</v>
       </c>
       <c r="J6">
-        <v>0.2384072864369107</v>
+        <v>0.1393808158066948</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>16.5756983954606</v>
+        <v>17.13024733333333</v>
       </c>
       <c r="N6">
-        <v>16.5756983954606</v>
+        <v>51.390742</v>
       </c>
       <c r="O6">
-        <v>0.2935764792412547</v>
+        <v>0.2959211466465044</v>
       </c>
       <c r="P6">
-        <v>0.2935764792412547</v>
+        <v>0.2959211466465043</v>
       </c>
       <c r="Q6">
-        <v>25.75633894801753</v>
+        <v>27.12582088340511</v>
       </c>
       <c r="R6">
-        <v>25.75633894801753</v>
+        <v>244.132387950646</v>
       </c>
       <c r="S6">
-        <v>0.06999077177760957</v>
+        <v>0.04124573083404235</v>
       </c>
       <c r="T6">
-        <v>0.06999077177760957</v>
+        <v>0.04124573083404234</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.5538614623364</v>
+        <v>1.583504333333333</v>
       </c>
       <c r="H7">
-        <v>1.5538614623364</v>
+        <v>4.750513</v>
       </c>
       <c r="I7">
-        <v>0.2384072864369107</v>
+        <v>0.1393808158066948</v>
       </c>
       <c r="J7">
-        <v>0.2384072864369107</v>
+        <v>0.1393808158066948</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>27.4864398479332</v>
+        <v>27.61090666666666</v>
       </c>
       <c r="N7">
-        <v>27.4864398479332</v>
+        <v>82.83271999999999</v>
       </c>
       <c r="O7">
-        <v>0.4868194416256165</v>
+        <v>0.4769721651858779</v>
       </c>
       <c r="P7">
-        <v>0.4868194416256165</v>
+        <v>0.4769721651858778</v>
       </c>
       <c r="Q7">
-        <v>42.71011961653098</v>
+        <v>43.72199035392888</v>
       </c>
       <c r="R7">
-        <v>42.71011961653098</v>
+        <v>393.4979131853599</v>
       </c>
       <c r="S7">
-        <v>0.1160613020626953</v>
+        <v>0.06648076950069326</v>
       </c>
       <c r="T7">
-        <v>0.1160613020626953</v>
+        <v>0.06648076950069323</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.5538614623364</v>
+        <v>1.583504333333333</v>
       </c>
       <c r="H8">
-        <v>1.5538614623364</v>
+        <v>4.750513</v>
       </c>
       <c r="I8">
-        <v>0.2384072864369107</v>
+        <v>0.1393808158066948</v>
       </c>
       <c r="J8">
-        <v>0.2384072864369107</v>
+        <v>0.1393808158066948</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.15855446623351</v>
+        <v>4.423514</v>
       </c>
       <c r="N8">
-        <v>4.15855446623351</v>
+        <v>13.270542</v>
       </c>
       <c r="O8">
-        <v>0.07365323317322005</v>
+        <v>0.07641520344774541</v>
       </c>
       <c r="P8">
-        <v>0.07365323317322005</v>
+        <v>0.0764152034477454</v>
       </c>
       <c r="Q8">
-        <v>6.461817524107169</v>
+        <v>7.004653587560666</v>
       </c>
       <c r="R8">
-        <v>6.461817524107169</v>
+        <v>63.04188228804599</v>
       </c>
       <c r="S8">
-        <v>0.01755946745813244</v>
+        <v>0.01065081339658131</v>
       </c>
       <c r="T8">
-        <v>0.01755946745813244</v>
+        <v>0.01065081339658131</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.5538614623364</v>
+        <v>1.583504333333333</v>
       </c>
       <c r="H9">
-        <v>1.5538614623364</v>
+        <v>4.750513</v>
       </c>
       <c r="I9">
-        <v>0.2384072864369107</v>
+        <v>0.1393808158066948</v>
       </c>
       <c r="J9">
-        <v>0.2384072864369107</v>
+        <v>0.1393808158066948</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>8.24056889518625</v>
+        <v>8.723210333333332</v>
       </c>
       <c r="N9">
-        <v>8.24056889518625</v>
+        <v>26.169631</v>
       </c>
       <c r="O9">
-        <v>0.1459508459599087</v>
+        <v>0.1506914847198724</v>
       </c>
       <c r="P9">
-        <v>0.1459508459599087</v>
+        <v>0.1506914847198724</v>
       </c>
       <c r="Q9">
-        <v>12.80470243395796</v>
+        <v>13.81324136341144</v>
       </c>
       <c r="R9">
-        <v>12.80470243395796</v>
+        <v>124.319172270703</v>
       </c>
       <c r="S9">
-        <v>0.03479574513847337</v>
+        <v>0.02100350207537791</v>
       </c>
       <c r="T9">
-        <v>0.03479574513847337</v>
+        <v>0.0210035020753779</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.59625752450706</v>
+        <v>0.6660723333333333</v>
       </c>
       <c r="H10">
-        <v>0.59625752450706</v>
+        <v>1.998217</v>
       </c>
       <c r="I10">
-        <v>0.09148314819622125</v>
+        <v>0.05862800830537802</v>
       </c>
       <c r="J10">
-        <v>0.09148314819622125</v>
+        <v>0.05862800830537802</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>16.5756983954606</v>
+        <v>17.13024733333333</v>
       </c>
       <c r="N10">
-        <v>16.5756983954606</v>
+        <v>51.390742</v>
       </c>
       <c r="O10">
-        <v>0.2935764792412547</v>
+        <v>0.2959211466465044</v>
       </c>
       <c r="P10">
-        <v>0.2935764792412547</v>
+        <v>0.2959211466465043</v>
       </c>
       <c r="Q10">
-        <v>9.883384892252984</v>
+        <v>11.40998381189044</v>
       </c>
       <c r="R10">
-        <v>9.883384892252984</v>
+        <v>102.689854307014</v>
       </c>
       <c r="S10">
-        <v>0.02685730055735257</v>
+        <v>0.01734926744332825</v>
       </c>
       <c r="T10">
-        <v>0.02685730055735257</v>
+        <v>0.01734926744332824</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.59625752450706</v>
+        <v>0.6660723333333333</v>
       </c>
       <c r="H11">
-        <v>0.59625752450706</v>
+        <v>1.998217</v>
       </c>
       <c r="I11">
-        <v>0.09148314819622125</v>
+        <v>0.05862800830537802</v>
       </c>
       <c r="J11">
-        <v>0.09148314819622125</v>
+        <v>0.05862800830537802</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>27.4864398479332</v>
+        <v>27.61090666666666</v>
       </c>
       <c r="N11">
-        <v>27.4864398479332</v>
+        <v>82.83271999999999</v>
       </c>
       <c r="O11">
-        <v>0.4868194416256165</v>
+        <v>0.4769721651858779</v>
       </c>
       <c r="P11">
-        <v>0.4868194416256165</v>
+        <v>0.4769721651858778</v>
       </c>
       <c r="Q11">
-        <v>16.38899658124086</v>
+        <v>18.39086102891555</v>
       </c>
       <c r="R11">
-        <v>16.38899658124086</v>
+        <v>165.51774926024</v>
       </c>
       <c r="S11">
-        <v>0.04453577512303795</v>
+        <v>0.02796392806195179</v>
       </c>
       <c r="T11">
-        <v>0.04453577512303795</v>
+        <v>0.02796392806195178</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.59625752450706</v>
+        <v>0.6660723333333333</v>
       </c>
       <c r="H12">
-        <v>0.59625752450706</v>
+        <v>1.998217</v>
       </c>
       <c r="I12">
-        <v>0.09148314819622125</v>
+        <v>0.05862800830537802</v>
       </c>
       <c r="J12">
-        <v>0.09148314819622125</v>
+        <v>0.05862800830537802</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.15855446623351</v>
+        <v>4.423514</v>
       </c>
       <c r="N12">
-        <v>4.15855446623351</v>
+        <v>13.270542</v>
       </c>
       <c r="O12">
-        <v>0.07365323317322005</v>
+        <v>0.07641520344774541</v>
       </c>
       <c r="P12">
-        <v>0.07365323317322005</v>
+        <v>0.0764152034477454</v>
       </c>
       <c r="Q12">
-        <v>2.479569391564171</v>
+        <v>2.946380291512666</v>
       </c>
       <c r="R12">
-        <v>2.479569391564171</v>
+        <v>26.517422623614</v>
       </c>
       <c r="S12">
-        <v>0.006738029645516529</v>
+        <v>0.004480071182391569</v>
       </c>
       <c r="T12">
-        <v>0.006738029645516529</v>
+        <v>0.004480071182391568</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.59625752450706</v>
+        <v>0.6660723333333333</v>
       </c>
       <c r="H13">
-        <v>0.59625752450706</v>
+        <v>1.998217</v>
       </c>
       <c r="I13">
-        <v>0.09148314819622125</v>
+        <v>0.05862800830537802</v>
       </c>
       <c r="J13">
-        <v>0.09148314819622125</v>
+        <v>0.05862800830537802</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>8.24056889518625</v>
+        <v>8.723210333333332</v>
       </c>
       <c r="N13">
-        <v>8.24056889518625</v>
+        <v>26.169631</v>
       </c>
       <c r="O13">
-        <v>0.1459508459599087</v>
+        <v>0.1506914847198724</v>
       </c>
       <c r="P13">
-        <v>0.1459508459599087</v>
+        <v>0.1506914847198724</v>
       </c>
       <c r="Q13">
-        <v>4.913501209973632</v>
+        <v>5.810289060880777</v>
       </c>
       <c r="R13">
-        <v>4.913501209973632</v>
+        <v>52.29260154792699</v>
       </c>
       <c r="S13">
-        <v>0.01335204287031419</v>
+        <v>0.008834741617706426</v>
       </c>
       <c r="T13">
-        <v>0.01335204287031419</v>
+        <v>0.008834741617706424</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.58733762363322</v>
+        <v>3.687463666666666</v>
       </c>
       <c r="H14">
-        <v>1.58733762363322</v>
+        <v>11.062391</v>
       </c>
       <c r="I14">
-        <v>0.2435434977199288</v>
+        <v>0.3245723319466</v>
       </c>
       <c r="J14">
-        <v>0.2435434977199288</v>
+        <v>0.3245723319466</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>16.5756983954606</v>
+        <v>17.13024733333333</v>
       </c>
       <c r="N14">
-        <v>16.5756983954606</v>
+        <v>51.390742</v>
       </c>
       <c r="O14">
-        <v>0.2935764792412547</v>
+        <v>0.2959211466465044</v>
       </c>
       <c r="P14">
-        <v>0.2935764792412547</v>
+        <v>0.2959211466465043</v>
       </c>
       <c r="Q14">
-        <v>26.3112297011114</v>
+        <v>63.16716464268022</v>
       </c>
       <c r="R14">
-        <v>26.3112297011114</v>
+        <v>568.5044817841219</v>
       </c>
       <c r="S14">
-        <v>0.07149864260271722</v>
+        <v>0.09604781663936771</v>
       </c>
       <c r="T14">
-        <v>0.07149864260271722</v>
+        <v>0.09604781663936768</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.58733762363322</v>
+        <v>3.687463666666666</v>
       </c>
       <c r="H15">
-        <v>1.58733762363322</v>
+        <v>11.062391</v>
       </c>
       <c r="I15">
-        <v>0.2435434977199288</v>
+        <v>0.3245723319466</v>
       </c>
       <c r="J15">
-        <v>0.2435434977199288</v>
+        <v>0.3245723319466</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>27.4864398479332</v>
+        <v>27.61090666666666</v>
       </c>
       <c r="N15">
-        <v>27.4864398479332</v>
+        <v>82.83271999999999</v>
       </c>
       <c r="O15">
-        <v>0.4868194416256165</v>
+        <v>0.4769721651858779</v>
       </c>
       <c r="P15">
-        <v>0.4868194416256165</v>
+        <v>0.4769721651858778</v>
       </c>
       <c r="Q15">
-        <v>43.63026011035574</v>
+        <v>101.8142151370578</v>
       </c>
       <c r="R15">
-        <v>43.63026011035574</v>
+        <v>916.3279362335199</v>
       </c>
       <c r="S15">
-        <v>0.1185617095715653</v>
+        <v>0.1548119679279993</v>
       </c>
       <c r="T15">
-        <v>0.1185617095715653</v>
+        <v>0.1548119679279993</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.58733762363322</v>
+        <v>3.687463666666666</v>
       </c>
       <c r="H16">
-        <v>1.58733762363322</v>
+        <v>11.062391</v>
       </c>
       <c r="I16">
-        <v>0.2435434977199288</v>
+        <v>0.3245723319466</v>
       </c>
       <c r="J16">
-        <v>0.2435434977199288</v>
+        <v>0.3245723319466</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>4.15855446623351</v>
+        <v>4.423514</v>
       </c>
       <c r="N16">
-        <v>4.15855446623351</v>
+        <v>13.270542</v>
       </c>
       <c r="O16">
-        <v>0.07365323317322005</v>
+        <v>0.07641520344774541</v>
       </c>
       <c r="P16">
-        <v>0.07365323317322005</v>
+        <v>0.0764152034477454</v>
       </c>
       <c r="Q16">
-        <v>6.601029964180413</v>
+        <v>16.31154715399133</v>
       </c>
       <c r="R16">
-        <v>6.601029964180413</v>
+        <v>146.803924385922</v>
       </c>
       <c r="S16">
-        <v>0.0179377660253875</v>
+        <v>0.02480226077920859</v>
       </c>
       <c r="T16">
-        <v>0.0179377660253875</v>
+        <v>0.02480226077920859</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.58733762363322</v>
+        <v>3.687463666666666</v>
       </c>
       <c r="H17">
-        <v>1.58733762363322</v>
+        <v>11.062391</v>
       </c>
       <c r="I17">
-        <v>0.2435434977199288</v>
+        <v>0.3245723319466</v>
       </c>
       <c r="J17">
-        <v>0.2435434977199288</v>
+        <v>0.3245723319466</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>8.24056889518625</v>
+        <v>8.723210333333332</v>
       </c>
       <c r="N17">
-        <v>8.24056889518625</v>
+        <v>26.169631</v>
       </c>
       <c r="O17">
-        <v>0.1459508459599087</v>
+        <v>0.1506914847198724</v>
       </c>
       <c r="P17">
-        <v>0.1459508459599087</v>
+        <v>0.1506914847198724</v>
       </c>
       <c r="Q17">
-        <v>13.08056504747077</v>
+        <v>32.16652116085788</v>
       </c>
       <c r="R17">
-        <v>13.08056504747077</v>
+        <v>289.498690447721</v>
       </c>
       <c r="S17">
-        <v>0.03554537952025869</v>
+        <v>0.04891028660002443</v>
       </c>
       <c r="T17">
-        <v>0.03554537952025869</v>
+        <v>0.04891028660002442</v>
       </c>
     </row>
   </sheetData>
